--- a/excel/SampleValidasi.xlsx
+++ b/excel/SampleValidasi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\SIADAM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\SIADAM\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF663D8D-9D66-4929-8B69-E98F48D594B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FFD1E2-BA8A-44AE-89C4-B810D9FD1A30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="604" xr2:uid="{BC94D1CB-D510-4893-AA71-DD83F06D92BB}"/>
   </bookViews>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="57">
-  <si>
-    <t>TANGGAL_PELURUSAN</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="87">
   <si>
     <t>ONDESK</t>
   </si>
@@ -42,30 +39,6 @@
     <t>ONSITE</t>
   </si>
   <si>
-    <t>NAMA_ODP</t>
-  </si>
-  <si>
-    <t>QR_ODP</t>
-  </si>
-  <si>
-    <t>KOORDINAT_ODP</t>
-  </si>
-  <si>
-    <t>NAMA_OLT</t>
-  </si>
-  <si>
-    <t>PORT_OLT</t>
-  </si>
-  <si>
-    <t>TOTAL_IN_ODP</t>
-  </si>
-  <si>
-    <t>PORT_OUT_SPLITTER</t>
-  </si>
-  <si>
-    <t>QR_OUT_SPLITTER</t>
-  </si>
-  <si>
     <t>STATUS</t>
   </si>
   <si>
@@ -78,27 +51,9 @@
     <t>SERVICE</t>
   </si>
   <si>
-    <t>QR_DROPCORE</t>
-  </si>
-  <si>
-    <t>NOTE_URUT_DROPCORE</t>
-  </si>
-  <si>
-    <t>CONNECTIVITY_ODP_TO_OLT</t>
-  </si>
-  <si>
     <t>RFS</t>
   </si>
   <si>
-    <t>UPDATER_UIM</t>
-  </si>
-  <si>
-    <t>KAPASITAS</t>
-  </si>
-  <si>
-    <t>UPDATER_DAVA</t>
-  </si>
-  <si>
     <t>FAIZAL</t>
   </si>
   <si>
@@ -120,33 +75,6 @@
     <t>Gian</t>
   </si>
   <si>
-    <t>PORT_ODP</t>
-  </si>
-  <si>
-    <t>FLAG_OLT_PORT</t>
-  </si>
-  <si>
-    <t>ODP_ONT</t>
-  </si>
-  <si>
-    <t>NOTE_QR_ODP</t>
-  </si>
-  <si>
-    <t>NOTE_QR_OUT_SPLITTER</t>
-  </si>
-  <si>
-    <t>NOTE_QR_DROPCORE</t>
-  </si>
-  <si>
-    <t>NOTE_ODP</t>
-  </si>
-  <si>
-    <t>NOTE_HD_DAMAN</t>
-  </si>
-  <si>
-    <t>TANGGAL_UPDATE_UIM</t>
-  </si>
-  <si>
     <t>ODP-SMC-FAJ/001</t>
   </si>
   <si>
@@ -202,13 +130,176 @@
   </si>
   <si>
     <t>TE30OUGKLOHJ</t>
+  </si>
+  <si>
+    <t>TANGGAL PELURUSAN</t>
+  </si>
+  <si>
+    <t>QR ODP</t>
+  </si>
+  <si>
+    <t>KOORDINAT ODP</t>
+  </si>
+  <si>
+    <t>AMIJA</t>
+  </si>
+  <si>
+    <t>ODP</t>
+  </si>
+  <si>
+    <t>OLT</t>
+  </si>
+  <si>
+    <t>PORT OUT SPLITTER</t>
+  </si>
+  <si>
+    <t>DASHBOARD FF</t>
+  </si>
+  <si>
+    <t>UIM (SDI)</t>
+  </si>
+  <si>
+    <t>UIM NON CONNECTIVITY (HD DAMAN)</t>
+  </si>
+  <si>
+    <t>UPDATE DAVA</t>
+  </si>
+  <si>
+    <t>NAMAODP</t>
+  </si>
+  <si>
+    <t>NOTE</t>
+  </si>
+  <si>
+    <t>NAMA OLT (IP OLT)</t>
+  </si>
+  <si>
+    <t>PORT OLT</t>
+  </si>
+  <si>
+    <t>TOTAL IN ODP</t>
+  </si>
+  <si>
+    <t>KAPASITAS ODP</t>
+  </si>
+  <si>
+    <t>QR OUT SPLITTER</t>
+  </si>
+  <si>
+    <t>PORT</t>
+  </si>
+  <si>
+    <t>QR DROPCORE</t>
+  </si>
+  <si>
+    <t>NOTE URUT DROPCORE</t>
+  </si>
+  <si>
+    <t>FLAG OLT &amp; PORT</t>
+  </si>
+  <si>
+    <t>CONNECTIVITY ODP TO OLT</t>
+  </si>
+  <si>
+    <t>ODP - ONT</t>
+  </si>
+  <si>
+    <t>TANGGAL UPDATE UIM</t>
+  </si>
+  <si>
+    <t>UPDATER UIM</t>
+  </si>
+  <si>
+    <t>UPDATER DAVA</t>
+  </si>
+  <si>
+    <t>nama ondesk</t>
+  </si>
+  <si>
+    <t>nama tim (teknisi1-teknisi2)</t>
+  </si>
+  <si>
+    <t>ODP3digit</t>
+  </si>
+  <si>
+    <t>sumber data,note kendala,beda nama di lapangan</t>
+  </si>
+  <si>
+    <t>latitude, longitude</t>
+  </si>
+  <si>
+    <t>nama OLT (IP OLT)</t>
+  </si>
+  <si>
+    <t>jumlah IN</t>
+  </si>
+  <si>
+    <t>kapasitas ODP</t>
+  </si>
+  <si>
+    <t>QR utk port outsplitter</t>
+  </si>
+  <si>
+    <t>isi Port ODP</t>
+  </si>
+  <si>
+    <t>ISI/NO DETECT/ IDLE/KOSONG</t>
+  </si>
+  <si>
+    <t>ONU OLT</t>
+  </si>
+  <si>
+    <t>SN ONT yg terdeteksi</t>
+  </si>
+  <si>
+    <t>SERVICE NUMBER</t>
+  </si>
+  <si>
+    <t>QR yg menempel pada cable ties dropcore</t>
+  </si>
+  <si>
+    <t>hasil urut dropcore</t>
+  </si>
+  <si>
+    <t>dicek oleh ondesk pelurusan</t>
+  </si>
+  <si>
+    <t>dikerjakan apabila ODP ke OLT belum lurus (lihat kolom sebelah kiri)</t>
+  </si>
+  <si>
+    <t>data ODP: koordinat, okupansi, fttx dropcable ke ONT
+data ONT: SN, onu (jika ada formnya)</t>
+  </si>
+  <si>
+    <t>STP+port, SP+port, service trail, CPE+target, vlan</t>
+  </si>
+  <si>
+    <t>diisi jika ada catatan khusus/anomali</t>
+  </si>
+  <si>
+    <t>diisi tanggal ketika HD Daman mengupdate ke UIM</t>
+  </si>
+  <si>
+    <t>nama HD daman yg mengerjakan</t>
+  </si>
+  <si>
+    <t>inputkan QR ODP (menu resource capture)</t>
+  </si>
+  <si>
+    <t>inputkan QR out splitter (menu resource capture &gt; capacity &gt; masuk ke port nya)</t>
+  </si>
+  <si>
+    <t>inputkan QR dropcore (menu service capture &gt; masuk ke nomer service-nya)</t>
+  </si>
+  <si>
+    <t>nama yang melakukan input ketiga jenis QR di 3 kolom sebelah kiri</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,16 +307,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4CCCC"/>
+        <bgColor rgb="FFF4CCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -233,14 +348,135 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,16 +791,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75F3454A-66D5-4BFE-A4E7-7B444E421565}">
-  <dimension ref="A1:AE5"/>
+  <dimension ref="A1:AE7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:AF4108"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
@@ -588,261 +824,238 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" t="s">
-        <v>16</v>
-      </c>
-      <c r="U1" t="s">
-        <v>30</v>
-      </c>
-      <c r="V1" t="s">
-        <v>17</v>
-      </c>
-      <c r="W1" t="s">
-        <v>31</v>
-      </c>
-      <c r="X1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y1" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="C1" s="24"/>
+      <c r="D1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AA1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>21</v>
-      </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="9"/>
+      <c r="J1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="25"/>
+      <c r="L1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="24"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="24"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>43710</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="A2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2">
+      <c r="M2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="K2">
-        <v>18</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2" t="s">
-        <v>44</v>
-      </c>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2" t="s">
+      <c r="P2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="U2" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="V2" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="W2" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="X2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y2" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="U2" t="s">
-        <v>46</v>
-      </c>
-      <c r="W2" t="s">
-        <v>26</v>
-      </c>
-      <c r="X2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z2" s="1"/>
-      <c r="AA2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>28</v>
+      <c r="Z2" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA2" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD2" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE2" s="12" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>43710</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
-      <c r="K3">
-        <v>18</v>
-      </c>
-      <c r="L3">
-        <v>2</v>
-      </c>
-      <c r="M3" t="s">
-        <v>48</v>
-      </c>
-      <c r="N3">
-        <v>2</v>
-      </c>
-      <c r="O3" t="s">
-        <v>49</v>
-      </c>
-      <c r="P3">
-        <v>28</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>50</v>
-      </c>
-      <c r="R3" s="2">
-        <v>62248446885</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="U3" t="s">
-        <v>46</v>
-      </c>
-      <c r="W3" t="s">
-        <v>26</v>
-      </c>
-      <c r="X3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z3" s="1"/>
-      <c r="AA3" t="s">
+      <c r="A3" s="17"/>
+      <c r="B3" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="AB3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>28</v>
+      <c r="J3" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="O3" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="P3" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="R3" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="S3" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="T3" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="U3" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="V3" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="W3" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="X3" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y3" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z3" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA3" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB3" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC3" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD3" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE3" s="18" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
@@ -850,28 +1063,28 @@
         <v>43710</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="J4">
         <v>2</v>
@@ -880,56 +1093,45 @@
         <v>18</v>
       </c>
       <c r="L4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="N4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O4" t="s">
-        <v>49</v>
-      </c>
-      <c r="P4">
-        <v>9</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>53</v>
-      </c>
-      <c r="R4" s="2">
-        <v>622476421896</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="R4" s="2"/>
       <c r="S4" s="2" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="U4" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="W4" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="X4" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="Y4" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="Z4" s="1"/>
       <c r="AA4" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="AB4" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="AC4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="AE4" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
@@ -937,28 +1139,28 @@
         <v>43710</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -967,48 +1169,229 @@
         <v>18</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M5" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="N5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O5" t="s">
         <v>25</v>
       </c>
-      <c r="R5" s="2"/>
+      <c r="P5">
+        <v>28</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R5" s="2">
+        <v>62248446885</v>
+      </c>
       <c r="S5" s="2" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="U5" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="W5" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="X5" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="Y5" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="Z5" s="1"/>
       <c r="AA5" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="AB5" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="AC5" t="s">
-        <v>26</v>
+        <v>11</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>11</v>
       </c>
       <c r="AE5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43710</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>18</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6" t="s">
         <v>28</v>
+      </c>
+      <c r="N6">
+        <v>3</v>
+      </c>
+      <c r="O6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P6">
+        <v>9</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" s="2">
+        <v>622476421896</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U6" t="s">
+        <v>22</v>
+      </c>
+      <c r="W6" t="s">
+        <v>11</v>
+      </c>
+      <c r="X6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z6" s="1"/>
+      <c r="AA6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43710</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>18</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7">
+        <v>4</v>
+      </c>
+      <c r="O7" t="s">
+        <v>10</v>
+      </c>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U7" t="s">
+        <v>22</v>
+      </c>
+      <c r="W7" t="s">
+        <v>11</v>
+      </c>
+      <c r="X7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z7" s="1"/>
+      <c r="AA7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="W1:AA1"/>
+    <mergeCell ref="AB1:AE1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/excel/SampleValidasi.xlsx
+++ b/excel/SampleValidasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\SIADAM\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FFD1E2-BA8A-44AE-89C4-B810D9FD1A30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3430AEFB-2F4D-4D94-BFB6-E1133C677D3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="604" xr2:uid="{BC94D1CB-D510-4893-AA71-DD83F06D92BB}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="90">
   <si>
     <t>ONDESK</t>
   </si>
@@ -293,6 +293,15 @@
   </si>
   <si>
     <t>nama yang melakukan input ketiga jenis QR di 3 kolom sebelah kiri</t>
+  </si>
+  <si>
+    <t>NOTE QR ODP</t>
+  </si>
+  <si>
+    <t>NOTE QR OUT SPLITTER</t>
+  </si>
+  <si>
+    <t>NOTE QR DROPCORE</t>
   </si>
 </sst>
 </file>
@@ -411,10 +420,61 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -423,58 +483,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -793,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75F3454A-66D5-4BFE-A4E7-7B444E421565}">
   <dimension ref="A1:AE7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,236 +834,236 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="8" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="10" t="s">
+      <c r="I1" s="8"/>
+      <c r="J1" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="25"/>
-      <c r="L1" s="4" t="s">
+      <c r="K1" s="24"/>
+      <c r="L1" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="24"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="12" t="s">
+      <c r="M1" s="22"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="V1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="W1" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="4" t="s">
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="24"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="22"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="O2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="P2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="Q2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="R2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="S2" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="T2" s="13" t="s">
+      <c r="T2" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="U2" s="12" t="s">
+      <c r="U2" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="V2" s="12" t="s">
+      <c r="V2" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="W2" s="13" t="s">
+      <c r="W2" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="X2" s="13" t="s">
+      <c r="X2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="Y2" s="13" t="s">
+      <c r="Y2" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="Z2" s="16" t="s">
+      <c r="Z2" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="AA2" s="13" t="s">
+      <c r="AA2" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB2" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC2" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD2" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE2" s="12" t="s">
+      <c r="AB2" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC2" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD2" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE2" s="10" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18" t="s">
+      <c r="A3" s="15"/>
+      <c r="B3" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19" t="s">
+      <c r="F3" s="17"/>
+      <c r="G3" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18" t="s">
+      <c r="L3" s="16"/>
+      <c r="M3" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="N3" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="O3" s="19" t="s">
+      <c r="O3" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="P3" s="19" t="s">
+      <c r="P3" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="Q3" s="19" t="s">
+      <c r="Q3" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="R3" s="21" t="s">
+      <c r="R3" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="S3" s="19" t="s">
+      <c r="S3" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="T3" s="19" t="s">
+      <c r="T3" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="U3" s="18" t="s">
+      <c r="U3" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="V3" s="18" t="s">
+      <c r="V3" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="W3" s="19" t="s">
+      <c r="W3" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="X3" s="19" t="s">
+      <c r="X3" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="Y3" s="19" t="s">
+      <c r="Y3" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="Z3" s="22" t="s">
+      <c r="Z3" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="AA3" s="19" t="s">
+      <c r="AA3" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="AB3" s="18" t="s">
+      <c r="AB3" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="AC3" s="18" t="s">
+      <c r="AC3" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="AD3" s="18" t="s">
+      <c r="AD3" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="AE3" s="18" t="s">
+      <c r="AE3" s="16" t="s">
         <v>86</v>
       </c>
     </row>

--- a/excel/SampleValidasi.xlsx
+++ b/excel/SampleValidasi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\SIADAM\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3430AEFB-2F4D-4D94-BFB6-E1133C677D3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FEAC9B8-D3C6-477C-830C-62ED937C1B63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="604" xr2:uid="{BC94D1CB-D510-4893-AA71-DD83F06D92BB}"/>
+    <workbookView xWindow="10035" yWindow="165" windowWidth="11790" windowHeight="10710" tabRatio="604" xr2:uid="{BC94D1CB-D510-4893-AA71-DD83F06D92BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="87">
   <si>
     <t>ONDESK</t>
   </si>
@@ -293,15 +293,6 @@
   </si>
   <si>
     <t>nama yang melakukan input ketiga jenis QR di 3 kolom sebelah kiri</t>
-  </si>
-  <si>
-    <t>NOTE QR ODP</t>
-  </si>
-  <si>
-    <t>NOTE QR OUT SPLITTER</t>
-  </si>
-  <si>
-    <t>NOTE QR DROPCORE</t>
   </si>
 </sst>
 </file>
@@ -802,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75F3454A-66D5-4BFE-A4E7-7B444E421565}">
   <dimension ref="A1:AE7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AD2" sqref="AD2"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AB3" sqref="AB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,13 +957,13 @@
         <v>58</v>
       </c>
       <c r="AB2" s="10" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="AC2" s="10" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="AD2" s="10" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="AE2" s="10" t="s">
         <v>59</v>
